--- a/ExportedFiles/excelFiles/start_monitoring_price.xlsx
+++ b/ExportedFiles/excelFiles/start_monitoring_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,102 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-09-13 19:53:39</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>start_monitoring_price</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/site/microsoft-xbox-wireless-controller-for-xbox-series-x-xbox-series-s-xbox-one-windows-devices-sky-cipher-special-edition/6584960.p?skuId=6584960</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Starting price monitoring. Current price: $69.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>19:53:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-09-13 19:54:02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>start_monitoring_price</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/site/microsoft-xbox-wireless-controller-for-xbox-series-x-xbox-series-s-xbox-one-windows-devices-sky-cipher-special-edition/6584960.p?skuId=6584960</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Price remains the same: $69.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>19:54:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-09-13 19:54:24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>start_monitoring_price</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/site/microsoft-xbox-wireless-controller-for-xbox-series-x-xbox-series-s-xbox-one-windows-devices-sky-cipher-special-edition/6584960.p?skuId=6584960</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Price remains the same: $69.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>19:54:24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
